--- a/natmiOut/OldD0/LR-pairs_lrc2p/Efnb1-Erbb2.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Efnb1-Erbb2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,55 +525,55 @@
         <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>3.17207869582162</v>
+        <v>3.896501666666667</v>
       </c>
       <c r="H2">
-        <v>3.17207869582162</v>
+        <v>11.689505</v>
       </c>
       <c r="I2">
-        <v>0.3563742812658242</v>
+        <v>0.401720501899026</v>
       </c>
       <c r="J2">
-        <v>0.3563742812658242</v>
+        <v>0.401720501899026</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>4.85845247947144</v>
+        <v>1.534538333333333</v>
       </c>
       <c r="N2">
-        <v>4.85845247947144</v>
+        <v>4.603615</v>
       </c>
       <c r="O2">
-        <v>0.5645793606391022</v>
+        <v>0.1494637976135089</v>
       </c>
       <c r="P2">
-        <v>0.5645793606391022</v>
+        <v>0.1494637976135089</v>
       </c>
       <c r="Q2">
-        <v>15.41139360479308</v>
+        <v>5.979331173397222</v>
       </c>
       <c r="R2">
-        <v>15.41139360479308</v>
+        <v>53.813980560575</v>
       </c>
       <c r="S2">
-        <v>0.2012015638652786</v>
+        <v>0.06004267179303326</v>
       </c>
       <c r="T2">
-        <v>0.2012015638652786</v>
+        <v>0.06004267179303326</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,60 +587,60 @@
         <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>3.17207869582162</v>
+        <v>3.896501666666667</v>
       </c>
       <c r="H3">
-        <v>3.17207869582162</v>
+        <v>11.689505</v>
       </c>
       <c r="I3">
-        <v>0.3563742812658242</v>
+        <v>0.401720501899026</v>
       </c>
       <c r="J3">
-        <v>0.3563742812658242</v>
+        <v>0.401720501899026</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>3.74698515815613</v>
+        <v>4.973328333333334</v>
       </c>
       <c r="N3">
-        <v>3.74698515815613</v>
+        <v>14.919985</v>
       </c>
       <c r="O3">
-        <v>0.4354206393608977</v>
+        <v>0.4844014146353658</v>
       </c>
       <c r="P3">
-        <v>0.4354206393608977</v>
+        <v>0.4844014146353658</v>
       </c>
       <c r="Q3">
-        <v>11.88573179374686</v>
+        <v>19.37858213971389</v>
       </c>
       <c r="R3">
-        <v>11.88573179374686</v>
+        <v>174.407239257425</v>
       </c>
       <c r="S3">
-        <v>0.1551727174005456</v>
+        <v>0.1945939794079173</v>
       </c>
       <c r="T3">
-        <v>0.1551727174005456</v>
+        <v>0.1945939794079173</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>23</v>
@@ -649,55 +649,55 @@
         <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>3.17479231641065</v>
+        <v>3.896501666666667</v>
       </c>
       <c r="H4">
-        <v>3.17479231641065</v>
+        <v>11.689505</v>
       </c>
       <c r="I4">
-        <v>0.3566791490448984</v>
+        <v>0.401720501899026</v>
       </c>
       <c r="J4">
-        <v>0.3566791490448984</v>
+        <v>0.401720501899026</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>4.85845247947144</v>
+        <v>3.75909</v>
       </c>
       <c r="N4">
-        <v>4.85845247947144</v>
+        <v>11.27727</v>
       </c>
       <c r="O4">
-        <v>0.5645793606391022</v>
+        <v>0.3661347877511252</v>
       </c>
       <c r="P4">
-        <v>0.5645793606391022</v>
+        <v>0.3661347877511252</v>
       </c>
       <c r="Q4">
-        <v>15.4245776014722</v>
+        <v>14.64730045015</v>
       </c>
       <c r="R4">
-        <v>15.4245776014722</v>
+        <v>131.82570405135</v>
       </c>
       <c r="S4">
-        <v>0.2013736859210678</v>
+        <v>0.1470838506980754</v>
       </c>
       <c r="T4">
-        <v>0.2013736859210678</v>
+        <v>0.1470838506980754</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,60 +711,60 @@
         <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>3.17479231641065</v>
+        <v>3.23724</v>
       </c>
       <c r="H5">
-        <v>3.17479231641065</v>
+        <v>9.71172</v>
       </c>
       <c r="I5">
-        <v>0.3566791490448984</v>
+        <v>0.3337521163387849</v>
       </c>
       <c r="J5">
-        <v>0.3566791490448984</v>
+        <v>0.3337521163387849</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>3.74698515815613</v>
+        <v>1.534538333333333</v>
       </c>
       <c r="N5">
-        <v>3.74698515815613</v>
+        <v>4.603615</v>
       </c>
       <c r="O5">
-        <v>0.4354206393608977</v>
+        <v>0.1494637976135089</v>
       </c>
       <c r="P5">
-        <v>0.4354206393608977</v>
+        <v>0.1494637976135089</v>
       </c>
       <c r="Q5">
-        <v>11.89589968981883</v>
+        <v>4.967668874199999</v>
       </c>
       <c r="R5">
-        <v>11.89589968981883</v>
+        <v>44.7090198678</v>
       </c>
       <c r="S5">
-        <v>0.1553054631238306</v>
+        <v>0.04988385876954044</v>
       </c>
       <c r="T5">
-        <v>0.1553054631238306</v>
+        <v>0.04988385876954044</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>23</v>
@@ -776,57 +776,57 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>2.55410434590679</v>
+        <v>3.23724</v>
       </c>
       <c r="H6">
-        <v>2.55410434590679</v>
+        <v>9.71172</v>
       </c>
       <c r="I6">
-        <v>0.2869465696892773</v>
+        <v>0.3337521163387849</v>
       </c>
       <c r="J6">
-        <v>0.2869465696892773</v>
+        <v>0.3337521163387849</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>4.85845247947144</v>
+        <v>4.973328333333334</v>
       </c>
       <c r="N6">
-        <v>4.85845247947144</v>
+        <v>14.919985</v>
       </c>
       <c r="O6">
-        <v>0.5645793606391022</v>
+        <v>0.4844014146353658</v>
       </c>
       <c r="P6">
-        <v>0.5645793606391022</v>
+        <v>0.4844014146353658</v>
       </c>
       <c r="Q6">
-        <v>12.40899459219962</v>
+        <v>16.0998574138</v>
       </c>
       <c r="R6">
-        <v>12.40899459219962</v>
+        <v>144.8987167242</v>
       </c>
       <c r="S6">
-        <v>0.1620041108527558</v>
+        <v>0.1616699972920546</v>
       </c>
       <c r="T6">
-        <v>0.1620041108527558</v>
+        <v>0.1616699972920546</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>23</v>
@@ -838,52 +838,238 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>2.55410434590679</v>
+        <v>3.23724</v>
       </c>
       <c r="H7">
-        <v>2.55410434590679</v>
+        <v>9.71172</v>
       </c>
       <c r="I7">
-        <v>0.2869465696892773</v>
+        <v>0.3337521163387849</v>
       </c>
       <c r="J7">
-        <v>0.2869465696892773</v>
+        <v>0.3337521163387849</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>3.74698515815613</v>
+        <v>3.75909</v>
       </c>
       <c r="N7">
-        <v>3.74698515815613</v>
+        <v>11.27727</v>
       </c>
       <c r="O7">
-        <v>0.4354206393608977</v>
+        <v>0.3661347877511252</v>
       </c>
       <c r="P7">
-        <v>0.4354206393608977</v>
+        <v>0.3661347877511252</v>
       </c>
       <c r="Q7">
-        <v>9.570191076494812</v>
+        <v>12.1690765116</v>
       </c>
       <c r="R7">
-        <v>9.570191076494812</v>
+        <v>109.5216886044</v>
       </c>
       <c r="S7">
-        <v>0.1249424588365215</v>
+        <v>0.1221982602771899</v>
       </c>
       <c r="T7">
-        <v>0.1249424588365215</v>
+        <v>0.1221982602771899</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>2.565792333333333</v>
+      </c>
+      <c r="H8">
+        <v>7.697377</v>
+      </c>
+      <c r="I8">
+        <v>0.2645273817621892</v>
+      </c>
+      <c r="J8">
+        <v>0.2645273817621892</v>
+      </c>
+      <c r="K8">
+        <v>2</v>
+      </c>
+      <c r="L8">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M8">
+        <v>1.534538333333333</v>
+      </c>
+      <c r="N8">
+        <v>4.603615</v>
+      </c>
+      <c r="O8">
+        <v>0.1494637976135089</v>
+      </c>
+      <c r="P8">
+        <v>0.1494637976135089</v>
+      </c>
+      <c r="Q8">
+        <v>3.937306690872777</v>
+      </c>
+      <c r="R8">
+        <v>35.435760217855</v>
+      </c>
+      <c r="S8">
+        <v>0.03953726705093526</v>
+      </c>
+      <c r="T8">
+        <v>0.03953726705093526</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>2.565792333333333</v>
+      </c>
+      <c r="H9">
+        <v>7.697377</v>
+      </c>
+      <c r="I9">
+        <v>0.2645273817621892</v>
+      </c>
+      <c r="J9">
+        <v>0.2645273817621892</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>4.973328333333334</v>
+      </c>
+      <c r="N9">
+        <v>14.919985</v>
+      </c>
+      <c r="O9">
+        <v>0.4844014146353658</v>
+      </c>
+      <c r="P9">
+        <v>0.4844014146353658</v>
+      </c>
+      <c r="Q9">
+        <v>12.76052770881611</v>
+      </c>
+      <c r="R9">
+        <v>114.844749379345</v>
+      </c>
+      <c r="S9">
+        <v>0.1281374379353939</v>
+      </c>
+      <c r="T9">
+        <v>0.1281374379353939</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>2.565792333333333</v>
+      </c>
+      <c r="H10">
+        <v>7.697377</v>
+      </c>
+      <c r="I10">
+        <v>0.2645273817621892</v>
+      </c>
+      <c r="J10">
+        <v>0.2645273817621892</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>3.75909</v>
+      </c>
+      <c r="N10">
+        <v>11.27727</v>
+      </c>
+      <c r="O10">
+        <v>0.3661347877511252</v>
+      </c>
+      <c r="P10">
+        <v>0.3661347877511252</v>
+      </c>
+      <c r="Q10">
+        <v>9.645044302310001</v>
+      </c>
+      <c r="R10">
+        <v>86.80539872079</v>
+      </c>
+      <c r="S10">
+        <v>0.09685267677585999</v>
+      </c>
+      <c r="T10">
+        <v>0.09685267677585999</v>
       </c>
     </row>
   </sheetData>
